--- a/tests/template-excel/sample-mix.xlsx
+++ b/tests/template-excel/sample-mix.xlsx
@@ -8,30 +8,78 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C1C87-02A6-45D9-A2C2-EA03CA4DA415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70834534-B5F9-457F-810B-E8F21CE0AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[a]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{username}'s grades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{totalScore}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[teachers]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[schools]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application School：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teacher:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[gradeTable]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{comment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +97,32 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -75,10 +149,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,34 +444,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/template-excel/sample-mix.xlsx
+++ b/tests/template-excel/sample-mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\kaxiluo\php-excel-template\tests\template-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70834534-B5F9-457F-810B-E8F21CE0AC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE1322A-8ABA-4E16-B11A-92431CE48322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>{comment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{x}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,13 +140,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,20 +176,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,11 +489,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -506,11 +535,11 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
@@ -520,16 +549,27 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="G8" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
